--- a/docs/dizajn baze.xlsx
+++ b/docs/dizajn baze.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>ROLA</t>
   </si>
@@ -178,7 +178,7 @@
     <t>vreme zatvaranja</t>
   </si>
   <si>
-    <t>IZGLAGANJE PROIZVODA</t>
+    <t>IZLAGANJE PROIZVODA</t>
   </si>
   <si>
     <t>datum pocetka</t>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>vreme(pocetka)</t>
+  </si>
+  <si>
+    <t>NACIN PLACANJA</t>
+  </si>
+  <si>
+    <t>NACIN PREUZIMANJA</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
   <si>
     <t>???</t>
@@ -407,6 +416,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -414,10 +426,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -932,7 +941,7 @@
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1044,23 +1053,23 @@
       <c r="G51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="53">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -1085,10 +1094,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -1101,7 +1110,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -1127,10 +1136,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -1146,10 +1155,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1159,10 +1168,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1172,7 +1181,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -1200,7 +1209,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -1213,7 +1222,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -1226,7 +1235,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -1256,7 +1265,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -1287,7 +1296,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -1300,19 +1309,58 @@
         <v>102</v>
       </c>
     </row>
+    <row r="90">
+      <c r="B90" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="91">
       <c r="B91" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95">
-      <c r="B95" s="1" t="s">
+    <row r="94">
+      <c r="B94" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="1" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
